--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Inhba-Bambi.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Inhba-Bambi.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.4632176098109</v>
+        <v>2.288150666666667</v>
       </c>
       <c r="H2">
-        <v>0.4632176098109</v>
+        <v>6.864452</v>
       </c>
       <c r="I2">
-        <v>0.1215051479044847</v>
+        <v>0.3964219041944151</v>
       </c>
       <c r="J2">
-        <v>0.1215051479044847</v>
+        <v>0.3964219041944151</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.67947094621779</v>
+        <v>3.201683333333333</v>
       </c>
       <c r="N2">
-        <v>2.67947094621779</v>
+        <v>9.60505</v>
       </c>
       <c r="O2">
-        <v>0.5047379671074304</v>
+        <v>0.5163673346595562</v>
       </c>
       <c r="P2">
-        <v>0.5047379671074304</v>
+        <v>0.5163673346595563</v>
       </c>
       <c r="Q2">
-        <v>1.241178127264755</v>
+        <v>7.325933853622223</v>
       </c>
       <c r="R2">
-        <v>1.241178127264755</v>
+        <v>65.9334046826</v>
       </c>
       <c r="S2">
-        <v>0.06132826134639727</v>
+        <v>0.2046993220695361</v>
       </c>
       <c r="T2">
-        <v>0.06132826134639727</v>
+        <v>0.2046993220695361</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.4632176098109</v>
+        <v>2.288150666666667</v>
       </c>
       <c r="H3">
-        <v>0.4632176098109</v>
+        <v>6.864452</v>
       </c>
       <c r="I3">
-        <v>0.1215051479044847</v>
+        <v>0.3964219041944151</v>
       </c>
       <c r="J3">
-        <v>0.1215051479044847</v>
+        <v>0.3964219041944151</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.973892444417534</v>
+        <v>0.9983063333333334</v>
       </c>
       <c r="N3">
-        <v>0.973892444417534</v>
+        <v>2.994919</v>
       </c>
       <c r="O3">
-        <v>0.1834543096167752</v>
+        <v>0.1610067976274214</v>
       </c>
       <c r="P3">
-        <v>0.1834543096167752</v>
+        <v>0.1610067976274214</v>
       </c>
       <c r="Q3">
-        <v>0.4511241303159849</v>
+        <v>2.284275302154223</v>
       </c>
       <c r="R3">
-        <v>0.4511241303159849</v>
+        <v>20.558477719388</v>
       </c>
       <c r="S3">
-        <v>0.02229064302370141</v>
+        <v>0.06382662130370721</v>
       </c>
       <c r="T3">
-        <v>0.02229064302370141</v>
+        <v>0.06382662130370721</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4632176098109</v>
+        <v>2.288150666666667</v>
       </c>
       <c r="H4">
-        <v>0.4632176098109</v>
+        <v>6.864452</v>
       </c>
       <c r="I4">
-        <v>0.1215051479044847</v>
+        <v>0.3964219041944151</v>
       </c>
       <c r="J4">
-        <v>0.1215051479044847</v>
+        <v>0.3964219041944151</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.25085836950184</v>
+        <v>1.562824666666667</v>
       </c>
       <c r="N4">
-        <v>1.25085836950184</v>
+        <v>4.688474</v>
       </c>
       <c r="O4">
-        <v>0.2356270037011838</v>
+        <v>0.2520522873905527</v>
       </c>
       <c r="P4">
-        <v>0.2356270037011838</v>
+        <v>0.2520522873905527</v>
       </c>
       <c r="Q4">
-        <v>0.579419624132602</v>
+        <v>3.575978302916444</v>
       </c>
       <c r="R4">
-        <v>0.579419624132602</v>
+        <v>32.183804726248</v>
       </c>
       <c r="S4">
-        <v>0.0286298939350029</v>
+        <v>0.09991904772392088</v>
       </c>
       <c r="T4">
-        <v>0.0286298939350029</v>
+        <v>0.09991904772392088</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.4632176098109</v>
+        <v>2.288150666666667</v>
       </c>
       <c r="H5">
-        <v>0.4632176098109</v>
+        <v>6.864452</v>
       </c>
       <c r="I5">
-        <v>0.1215051479044847</v>
+        <v>0.3964219041944151</v>
       </c>
       <c r="J5">
-        <v>0.1215051479044847</v>
+        <v>0.3964219041944151</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.404415831707559</v>
+        <v>0.4375843333333334</v>
       </c>
       <c r="N5">
-        <v>0.404415831707559</v>
+        <v>1.312753</v>
       </c>
       <c r="O5">
-        <v>0.0761807195746106</v>
+        <v>0.07057358032246958</v>
       </c>
       <c r="P5">
-        <v>0.0761807195746106</v>
+        <v>0.07057358032246959</v>
       </c>
       <c r="Q5">
-        <v>0.1873325349332627</v>
+        <v>1.001258884039556</v>
       </c>
       <c r="R5">
-        <v>0.1873325349332627</v>
+        <v>9.011329956356001</v>
       </c>
       <c r="S5">
-        <v>0.009256349599383136</v>
+        <v>0.02797691309725089</v>
       </c>
       <c r="T5">
-        <v>0.009256349599383136</v>
+        <v>0.0279769130972509</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.52410154440256</v>
+        <v>2.588894</v>
       </c>
       <c r="H6">
-        <v>2.52410154440256</v>
+        <v>7.766681999999999</v>
       </c>
       <c r="I6">
-        <v>0.6620891023632983</v>
+        <v>0.4485256605643812</v>
       </c>
       <c r="J6">
-        <v>0.6620891023632983</v>
+        <v>0.4485256605643813</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.67947094621779</v>
+        <v>3.201683333333333</v>
       </c>
       <c r="N6">
-        <v>2.67947094621779</v>
+        <v>9.60505</v>
       </c>
       <c r="O6">
-        <v>0.5047379671074304</v>
+        <v>0.5163673346595562</v>
       </c>
       <c r="P6">
-        <v>0.5047379671074304</v>
+        <v>0.5163673346595563</v>
       </c>
       <c r="Q6">
-        <v>6.763256753530112</v>
+        <v>8.288818771566666</v>
       </c>
       <c r="R6">
-        <v>6.763256753530112</v>
+        <v>74.59936894409999</v>
       </c>
       <c r="S6">
-        <v>0.3341815075708345</v>
+        <v>0.2316039998720463</v>
       </c>
       <c r="T6">
-        <v>0.3341815075708345</v>
+        <v>0.2316039998720464</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.52410154440256</v>
+        <v>2.588894</v>
       </c>
       <c r="H7">
-        <v>2.52410154440256</v>
+        <v>7.766681999999999</v>
       </c>
       <c r="I7">
-        <v>0.6620891023632983</v>
+        <v>0.4485256605643812</v>
       </c>
       <c r="J7">
-        <v>0.6620891023632983</v>
+        <v>0.4485256605643813</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.973892444417534</v>
+        <v>0.9983063333333334</v>
       </c>
       <c r="N7">
-        <v>0.973892444417534</v>
+        <v>2.994919</v>
       </c>
       <c r="O7">
-        <v>0.1834543096167752</v>
+        <v>0.1610067976274214</v>
       </c>
       <c r="P7">
-        <v>0.1834543096167752</v>
+        <v>0.1610067976274214</v>
       </c>
       <c r="Q7">
-        <v>2.458203423036282</v>
+        <v>2.584509276528667</v>
       </c>
       <c r="R7">
-        <v>2.458203423036282</v>
+        <v>23.260583488758</v>
       </c>
       <c r="S7">
-        <v>0.1214630991788493</v>
+        <v>0.07221568026119482</v>
       </c>
       <c r="T7">
-        <v>0.1214630991788493</v>
+        <v>0.07221568026119482</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.52410154440256</v>
+        <v>2.588894</v>
       </c>
       <c r="H8">
-        <v>2.52410154440256</v>
+        <v>7.766681999999999</v>
       </c>
       <c r="I8">
-        <v>0.6620891023632983</v>
+        <v>0.4485256605643812</v>
       </c>
       <c r="J8">
-        <v>0.6620891023632983</v>
+        <v>0.4485256605643813</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.25085836950184</v>
+        <v>1.562824666666667</v>
       </c>
       <c r="N8">
-        <v>1.25085836950184</v>
+        <v>4.688474</v>
       </c>
       <c r="O8">
-        <v>0.2356270037011838</v>
+        <v>0.2520522873905527</v>
       </c>
       <c r="P8">
-        <v>0.2356270037011838</v>
+        <v>0.2520522873905527</v>
       </c>
       <c r="Q8">
-        <v>3.157293542288462</v>
+        <v>4.045987402585333</v>
       </c>
       <c r="R8">
-        <v>3.157293542288462</v>
+        <v>36.413886623268</v>
       </c>
       <c r="S8">
-        <v>0.1560060713730703</v>
+        <v>0.1130519186986109</v>
       </c>
       <c r="T8">
-        <v>0.1560060713730703</v>
+        <v>0.1130519186986109</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.52410154440256</v>
+        <v>2.588894</v>
       </c>
       <c r="H9">
-        <v>2.52410154440256</v>
+        <v>7.766681999999999</v>
       </c>
       <c r="I9">
-        <v>0.6620891023632983</v>
+        <v>0.4485256605643812</v>
       </c>
       <c r="J9">
-        <v>0.6620891023632983</v>
+        <v>0.4485256605643813</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.404415831707559</v>
+        <v>0.4375843333333334</v>
       </c>
       <c r="N9">
-        <v>0.404415831707559</v>
+        <v>1.312753</v>
       </c>
       <c r="O9">
-        <v>0.0761807195746106</v>
+        <v>0.07057358032246958</v>
       </c>
       <c r="P9">
-        <v>0.0761807195746106</v>
+        <v>0.07057358032246959</v>
       </c>
       <c r="Q9">
-        <v>1.020786625393896</v>
+        <v>1.132859455060667</v>
       </c>
       <c r="R9">
-        <v>1.020786625393896</v>
+        <v>10.195735095546</v>
       </c>
       <c r="S9">
-        <v>0.05043842424054408</v>
+        <v>0.03165406173252908</v>
       </c>
       <c r="T9">
-        <v>0.05043842424054408</v>
+        <v>0.03165406173252909</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.271061736233501</v>
+        <v>0.3123523333333333</v>
       </c>
       <c r="H10">
-        <v>0.271061736233501</v>
+        <v>0.9370569999999999</v>
       </c>
       <c r="I10">
-        <v>0.07110134773534026</v>
+        <v>0.05411501461132016</v>
       </c>
       <c r="J10">
-        <v>0.07110134773534026</v>
+        <v>0.05411501461132018</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.67947094621779</v>
+        <v>3.201683333333333</v>
       </c>
       <c r="N10">
-        <v>2.67947094621779</v>
+        <v>9.60505</v>
       </c>
       <c r="O10">
-        <v>0.5047379671074304</v>
+        <v>0.5163673346595562</v>
       </c>
       <c r="P10">
-        <v>0.5047379671074304</v>
+        <v>0.5163673346595563</v>
       </c>
       <c r="Q10">
-        <v>0.726302046869016</v>
+        <v>1.000053259761111</v>
       </c>
       <c r="R10">
-        <v>0.726302046869016</v>
+        <v>9.000479337849999</v>
       </c>
       <c r="S10">
-        <v>0.03588754971453414</v>
+        <v>0.02794322585991033</v>
       </c>
       <c r="T10">
-        <v>0.03588754971453414</v>
+        <v>0.02794322585991035</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.271061736233501</v>
+        <v>0.3123523333333333</v>
       </c>
       <c r="H11">
-        <v>0.271061736233501</v>
+        <v>0.9370569999999999</v>
       </c>
       <c r="I11">
-        <v>0.07110134773534026</v>
+        <v>0.05411501461132016</v>
       </c>
       <c r="J11">
-        <v>0.07110134773534026</v>
+        <v>0.05411501461132018</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.973892444417534</v>
+        <v>0.9983063333333334</v>
       </c>
       <c r="N11">
-        <v>0.973892444417534</v>
+        <v>2.994919</v>
       </c>
       <c r="O11">
-        <v>0.1834543096167752</v>
+        <v>0.1610067976274214</v>
       </c>
       <c r="P11">
-        <v>0.1834543096167752</v>
+        <v>0.1610067976274214</v>
       </c>
       <c r="Q11">
-        <v>0.2639849768885051</v>
+        <v>0.3118233125981111</v>
       </c>
       <c r="R11">
-        <v>0.2639849768885051</v>
+        <v>2.806409813383</v>
       </c>
       <c r="S11">
-        <v>0.01304384866160911</v>
+        <v>0.008712885206129777</v>
       </c>
       <c r="T11">
-        <v>0.01304384866160911</v>
+        <v>0.008712885206129778</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.271061736233501</v>
+        <v>0.3123523333333333</v>
       </c>
       <c r="H12">
-        <v>0.271061736233501</v>
+        <v>0.9370569999999999</v>
       </c>
       <c r="I12">
-        <v>0.07110134773534026</v>
+        <v>0.05411501461132016</v>
       </c>
       <c r="J12">
-        <v>0.07110134773534026</v>
+        <v>0.05411501461132018</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.25085836950184</v>
+        <v>1.562824666666667</v>
       </c>
       <c r="N12">
-        <v>1.25085836950184</v>
+        <v>4.688474</v>
       </c>
       <c r="O12">
-        <v>0.2356270037011838</v>
+        <v>0.2520522873905527</v>
       </c>
       <c r="P12">
-        <v>0.2356270037011838</v>
+        <v>0.2520522873905527</v>
       </c>
       <c r="Q12">
-        <v>0.3390598414193749</v>
+        <v>0.4881519312242222</v>
       </c>
       <c r="R12">
-        <v>0.3390598414193749</v>
+        <v>4.393367381018</v>
       </c>
       <c r="S12">
-        <v>0.01675339752599418</v>
+        <v>0.01363981321495643</v>
       </c>
       <c r="T12">
-        <v>0.01675339752599418</v>
+        <v>0.01363981321495643</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.271061736233501</v>
+        <v>0.3123523333333333</v>
       </c>
       <c r="H13">
-        <v>0.271061736233501</v>
+        <v>0.9370569999999999</v>
       </c>
       <c r="I13">
-        <v>0.07110134773534026</v>
+        <v>0.05411501461132016</v>
       </c>
       <c r="J13">
-        <v>0.07110134773534026</v>
+        <v>0.05411501461132018</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.404415831707559</v>
+        <v>0.4375843333333334</v>
       </c>
       <c r="N13">
-        <v>0.404415831707559</v>
+        <v>1.312753</v>
       </c>
       <c r="O13">
-        <v>0.0761807195746106</v>
+        <v>0.07057358032246958</v>
       </c>
       <c r="P13">
-        <v>0.0761807195746106</v>
+        <v>0.07057358032246959</v>
       </c>
       <c r="Q13">
-        <v>0.1096216575029663</v>
+        <v>0.1366804875467778</v>
       </c>
       <c r="R13">
-        <v>0.1096216575029663</v>
+        <v>1.230124387921</v>
       </c>
       <c r="S13">
-        <v>0.005416551833202831</v>
+        <v>0.003819090330323618</v>
       </c>
       <c r="T13">
-        <v>0.005416551833202831</v>
+        <v>0.00381909033032362</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.5539481984821411</v>
+        <v>0.5826116666666666</v>
       </c>
       <c r="H14">
-        <v>0.5539481984821411</v>
+        <v>1.747835</v>
       </c>
       <c r="I14">
-        <v>0.1453044019968767</v>
+        <v>0.1009374206298835</v>
       </c>
       <c r="J14">
-        <v>0.1453044019968767</v>
+        <v>0.1009374206298836</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.67947094621779</v>
+        <v>3.201683333333333</v>
       </c>
       <c r="N14">
-        <v>2.67947094621779</v>
+        <v>9.60505</v>
       </c>
       <c r="O14">
-        <v>0.5047379671074304</v>
+        <v>0.5163673346595562</v>
       </c>
       <c r="P14">
-        <v>0.5047379671074304</v>
+        <v>0.5163673346595563</v>
       </c>
       <c r="Q14">
-        <v>1.484288103542583</v>
+        <v>1.865338062972222</v>
       </c>
       <c r="R14">
-        <v>1.484288103542583</v>
+        <v>16.78804256675</v>
       </c>
       <c r="S14">
-        <v>0.07334064847566441</v>
+        <v>0.05212078685806347</v>
       </c>
       <c r="T14">
-        <v>0.07334064847566441</v>
+        <v>0.05212078685806349</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.5539481984821411</v>
+        <v>0.5826116666666666</v>
       </c>
       <c r="H15">
-        <v>0.5539481984821411</v>
+        <v>1.747835</v>
       </c>
       <c r="I15">
-        <v>0.1453044019968767</v>
+        <v>0.1009374206298835</v>
       </c>
       <c r="J15">
-        <v>0.1453044019968767</v>
+        <v>0.1009374206298836</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.973892444417534</v>
+        <v>0.9983063333333334</v>
       </c>
       <c r="N15">
-        <v>0.973892444417534</v>
+        <v>2.994919</v>
       </c>
       <c r="O15">
-        <v>0.1834543096167752</v>
+        <v>0.1610067976274214</v>
       </c>
       <c r="P15">
-        <v>0.1834543096167752</v>
+        <v>0.1610067976274214</v>
       </c>
       <c r="Q15">
-        <v>0.5394859651004617</v>
+        <v>0.5816249167072223</v>
       </c>
       <c r="R15">
-        <v>0.5394859651004617</v>
+        <v>5.234624250365</v>
       </c>
       <c r="S15">
-        <v>0.02665671875261539</v>
+        <v>0.01625161085638957</v>
       </c>
       <c r="T15">
-        <v>0.02665671875261539</v>
+        <v>0.01625161085638957</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.5539481984821411</v>
+        <v>0.5826116666666666</v>
       </c>
       <c r="H16">
-        <v>0.5539481984821411</v>
+        <v>1.747835</v>
       </c>
       <c r="I16">
-        <v>0.1453044019968767</v>
+        <v>0.1009374206298835</v>
       </c>
       <c r="J16">
-        <v>0.1453044019968767</v>
+        <v>0.1009374206298836</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.25085836950184</v>
+        <v>1.562824666666667</v>
       </c>
       <c r="N16">
-        <v>1.25085836950184</v>
+        <v>4.688474</v>
       </c>
       <c r="O16">
-        <v>0.2356270037011838</v>
+        <v>0.2520522873905527</v>
       </c>
       <c r="P16">
-        <v>0.2356270037011838</v>
+        <v>0.2520522873905527</v>
       </c>
       <c r="Q16">
-        <v>0.6929107403418526</v>
+        <v>0.9105198837544445</v>
       </c>
       <c r="R16">
-        <v>0.6929107403418526</v>
+        <v>8.19467895379</v>
       </c>
       <c r="S16">
-        <v>0.03423764086711636</v>
+        <v>0.02544150775306452</v>
       </c>
       <c r="T16">
-        <v>0.03423764086711636</v>
+        <v>0.02544150775306452</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.5539481984821411</v>
+        <v>0.5826116666666666</v>
       </c>
       <c r="H17">
-        <v>0.5539481984821411</v>
+        <v>1.747835</v>
       </c>
       <c r="I17">
-        <v>0.1453044019968767</v>
+        <v>0.1009374206298835</v>
       </c>
       <c r="J17">
-        <v>0.1453044019968767</v>
+        <v>0.1009374206298836</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.404415831707559</v>
+        <v>0.4375843333333334</v>
       </c>
       <c r="N17">
-        <v>0.404415831707559</v>
+        <v>1.312753</v>
       </c>
       <c r="O17">
-        <v>0.0761807195746106</v>
+        <v>0.07057358032246958</v>
       </c>
       <c r="P17">
-        <v>0.0761807195746106</v>
+        <v>0.07057358032246959</v>
       </c>
       <c r="Q17">
-        <v>0.2240254214120591</v>
+        <v>0.2549417377505556</v>
       </c>
       <c r="R17">
-        <v>0.2240254214120591</v>
+        <v>2.294475639755</v>
       </c>
       <c r="S17">
-        <v>0.01106939390148055</v>
+        <v>0.007123515162365984</v>
       </c>
       <c r="T17">
-        <v>0.01106939390148055</v>
+        <v>0.007123515162365987</v>
       </c>
     </row>
   </sheetData>
